--- a/data/trans_camb/P4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P4_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,47</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,29</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,57</t>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>18,93</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 13,59</t>
+          <t>-9,33; 11,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 11,02</t>
+          <t>-13,19; 10,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 12,87</t>
+          <t>-11,46; 12,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 32,95</t>
+          <t>-12,03; 12,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 5,76</t>
+          <t>6,21; 37,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 19,19</t>
+          <t>-15,61; 19,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 11,46</t>
+          <t>-16,95; 5,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 30,43</t>
+          <t>-3,51; 19,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 5,91</t>
+          <t>-11,31; 12,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 12,11</t>
+          <t>-4,79; 22,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 9,19</t>
+          <t>-1,49; 29,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 29,28</t>
+          <t>-9,42; 23,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-10,36; 4,87</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 11,06</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 9,25</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 12,2</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,26; 30,04</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-8,48; 16,0</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>-7,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,73%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>-21,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,2%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-10,06%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>66,6%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 77,83</t>
+          <t>-36,26; 65,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 57,07</t>
+          <t>-46,42; 53,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,52; 69,58</t>
+          <t>-43,54; 65,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,31; 187,75</t>
+          <t>-45,1; 68,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 28,71</t>
+          <t>21,06; 229,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 90,03</t>
+          <t>-30,17; 60,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 52,83</t>
+          <t>-52,29; 24,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 133,56</t>
+          <t>-11,9; 90,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 27,72</t>
+          <t>-34,62; 57,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 58,04</t>
+          <t>-15,99; 101,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 42,91</t>
+          <t>-3,4; 105,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,95; 139,5</t>
+          <t>-18,49; 62,68</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-36,25; 23,68</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-16,04; 52,62</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-25,09; 44,4</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 57,83</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 128,41</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; 43,11</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>-16,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>21,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>6,41</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-9,76</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>19,29</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 13,78</t>
+          <t>-16,47; 12,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 10,35</t>
+          <t>-15,69; 11,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 17,51</t>
+          <t>-13,12; 15,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 18,75</t>
+          <t>-29,35; -3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 14,58</t>
+          <t>5,76; 37,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 12,25</t>
+          <t>-14,57; 18,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 9,92</t>
+          <t>-6,98; 13,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 19,1</t>
+          <t>-9,06; 11,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 9,79</t>
+          <t>-8,85; 10,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 7,43</t>
+          <t>-12,66; 10,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 10,14</t>
+          <t>2,81; 28,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 15,79</t>
+          <t>-7,04; 20,04</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 10,85</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 9,16</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 10,61</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-18,34; -1,2</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 29,51</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 15,26</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,3%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>-44,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>106,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>52,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-28,56%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>78,98%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 51,16</t>
+          <t>-38,75; 48,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 38,3</t>
+          <t>-37,87; 38,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 63,98</t>
+          <t>-31,87; 53,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 63,43</t>
+          <t>-69,43; -12,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 55,99</t>
+          <t>22,01; 280,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 47,33</t>
+          <t>-32,72; 60,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 39,14</t>
+          <t>-18,78; 51,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 71,62</t>
+          <t>-24,11; 42,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 32,58</t>
+          <t>-24,02; 38,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 25,05</t>
+          <t>-34,22; 39,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 35,0</t>
+          <t>7,31; 117,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 52,63</t>
+          <t>-15,69; 57,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,03; 36,9</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-21,87; 31,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-20,43; 37,23</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-48,34; -3,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>32,08; 155,97</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-16,51; 43,92</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>22,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,37</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>21,06</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,76</t>
+          <t>8,87</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>21,81</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9,14</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 12,41</t>
+          <t>-8,92; 10,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 5,68</t>
+          <t>-9,81; 5,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 8,19</t>
+          <t>-8,85; 9,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 22,94</t>
+          <t>-8,54; 8,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 6,06</t>
+          <t>12,97; 32,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 6,91</t>
+          <t>-1,04; 19,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 6,73</t>
+          <t>-8,57; 5,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 20,9</t>
+          <t>-5,89; 6,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 6,67</t>
+          <t>-6,7; 5,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,46</t>
+          <t>-7,11; 7,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 5,22</t>
+          <t>12,56; 30,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 18,39</t>
+          <t>-0,63; 19,08</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 4,97</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 4,1</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 5,23</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 5,51</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 28,35</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 16,25</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,17%</t>
+          <t>-8,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>106,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>87,27%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>24,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-2,99%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-3,8%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-1,07%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>95,8%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,43; 68,43</t>
+          <t>-35,26; 60,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 33,84</t>
+          <t>-38,37; 34,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 46,45</t>
+          <t>-34,23; 51,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,14; 133,12</t>
+          <t>-32,97; 51,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 28,4</t>
+          <t>50,23; 187,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 34,66</t>
+          <t>-2,41; 63,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 31,6</t>
+          <t>-31,34; 25,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,85; 103,14</t>
+          <t>-22,08; 32,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 33,11</t>
+          <t>-25,51; 28,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 21,74</t>
+          <t>-27,05; 41,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 26,2</t>
+          <t>43,71; 147,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,98; 90,65</t>
+          <t>-1,37; 61,41</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-24,48; 25,09</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-21,79; 20,86</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 26,31</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; 27,77</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>58,85; 142,23</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 51,3</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>2,38</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>25,78</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>27,59</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>1,0</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>21,43</t>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>20,24</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 10,72</t>
+          <t>-5,18; 9,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 5,54</t>
+          <t>-8,56; 4,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 7,97</t>
+          <t>-6,58; 8,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 26,58</t>
+          <t>-6,89; 10,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 7,36</t>
+          <t>3,03; 24,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 9,28</t>
+          <t>-13,35; 8,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 7,01</t>
+          <t>-6,17; 6,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,38; 34,39</t>
+          <t>-4,12; 9,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 6,8</t>
+          <t>-5,59; 7,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 5,47</t>
+          <t>-5,75; 7,7</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 6,21</t>
+          <t>18,7; 36,1</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,57; 28,29</t>
+          <t>-6,53; 13,14</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 6,36</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 5,36</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 6,07</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 7,49</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 26,44</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 8,18</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>-8,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>57,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>124,44%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
+          <t>125,8%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
           <t>4,6%</t>
         </is>
       </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>98,37%</t>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>87,14%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 56,15</t>
+          <t>-18,72; 48,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 27,42</t>
+          <t>-32,5; 23,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 41,37</t>
+          <t>-25,11; 43,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,88; 136,71</t>
+          <t>-27,27; 53,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 42,94</t>
+          <t>8,53; 121,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 51,72</t>
+          <t>-29,44; 23,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 41,2</t>
+          <t>-26,8; 38,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,98; 194,2</t>
+          <t>-16,75; 56,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 34,31</t>
+          <t>-23,61; 41,87</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 28,41</t>
+          <t>-24,3; 44,46</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 32,34</t>
+          <t>70,88; 191,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>65,51; 147,19</t>
+          <t>-12,45; 31,49</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 32,72</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-17,69; 27,32</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-15,75; 30,05</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-15,47; 37,68</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>48,47; 130,5</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-15,18; 21,28</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,34</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>19,15</t>
+          <t>-4,24</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>16,32</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 11,38</t>
+          <t>-5,36; 11,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 5,52</t>
+          <t>-9,37; 5,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 6,5</t>
+          <t>-7,89; 8,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,5; 31,36</t>
+          <t>-4,6; 11,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 8,58</t>
+          <t>5,28; 24,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 7,12</t>
+          <t>-13,82; 8,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 7,34</t>
+          <t>-9,07; 8,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,49; 25,85</t>
+          <t>-9,92; 6,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 7,17</t>
+          <t>-9,87; 6,8</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 4,09</t>
+          <t>-12,66; 4,55</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,91</t>
+          <t>6,94; 27,01</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,12; 25,33</t>
+          <t>-14,32; 6,54</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 7,23</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 5,07</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 5,92</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 5,39</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 23,07</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 4,68</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>115,68%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>-3,35%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>-18,11%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>82,46%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>-10,25%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-5,68%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-2,24%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>76,58%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-7,26%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 75,96</t>
+          <t>-25,51; 78,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 38,42</t>
+          <t>-41,96; 36,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 43,93</t>
+          <t>-35,79; 63,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>51,87; 211,88</t>
+          <t>-21,99; 82,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 40,0</t>
+          <t>19,57; 139,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 34,22</t>
+          <t>-29,1; 24,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 35,83</t>
+          <t>-30,87; 39,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>25,88; 123,9</t>
+          <t>-34,47; 33,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 38,59</t>
+          <t>-32,4; 33,81</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 21,75</t>
+          <t>-44,94; 22,46</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 27,14</t>
+          <t>25,46; 170,75</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>49,28; 137,82</t>
+          <t>-30,69; 17,79</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-20,58; 40,0</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-26,39; 26,81</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; 32,41</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-24,9; 29,0</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>34,49; 128,2</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 13,67</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>23,93</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>28,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-4,72</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-3,3</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>20,34</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 10,65</t>
+          <t>-7,61; 8,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 7,24</t>
+          <t>-8,44; 6,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 7,86</t>
+          <t>-9,85; 6,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>13,46; 33,38</t>
+          <t>-12,23; 5,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 5,07</t>
+          <t>18,25; 40,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,84; -0,56</t>
+          <t>-11,11; 13,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 4,2</t>
+          <t>-13,65; 4,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 17,92</t>
+          <t>-16,63; -0,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 5,42</t>
+          <t>-14,74; 3,53</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 0,95</t>
+          <t>-15,19; 7,37</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 3,32</t>
+          <t>-1,86; 23,84</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,86; 23,87</t>
+          <t>-12,11; 15,43</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; 4,18</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-10,43; 1,27</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; 2,69</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-10,6; 3,13</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 28,8</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 10,36</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-6,0%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>134,66%</t>
+          <t>-22,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-13,94%</t>
+          <t>210,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-29,45%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>-16,34%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>-30,45%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-5,31%</t>
+          <t>-19,57%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-20,11%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-12,09%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-9,37%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-20,8%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-14,54%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>-18,56%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>110,12%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 72,23</t>
+          <t>-36,93; 56,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 55,69</t>
+          <t>-39,84; 47,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 62,16</t>
+          <t>-44,69; 46,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>60,86; 229,6</t>
+          <t>-57,89; 36,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-41,84; 22,04</t>
+          <t>82,54; 452,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,73; -1,5</t>
+          <t>-23,42; 37,4</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 19,03</t>
+          <t>-42,66; 21,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 72,7</t>
+          <t>-52,12; 0,04</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 27,7</t>
+          <t>-44,94; 14,71</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 5,41</t>
+          <t>-47,59; 31,0</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 17,99</t>
+          <t>-7,07; 141,9</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>28,37; 119,68</t>
+          <t>-29,9; 59,93</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-32,39; 20,02</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-40,96; 6,7</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-35,79; 14,49</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-43,97; 15,55</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>49,64; 200,82</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-17,62; 32,66</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>15,29</t>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>19,62</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,2</t>
+          <t>-3,41; 4,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,91</t>
+          <t>-5,3; 2,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,73</t>
+          <t>-3,81; 4,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,53</t>
+          <t>-6,51; 1,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,67</t>
+          <t>16,15; 25,27</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,58</t>
+          <t>-2,69; 7,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 2,89</t>
+          <t>-5,11; 2,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>10,46; 19,14</t>
+          <t>-3,0; 3,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,19</t>
+          <t>-3,66; 2,86</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,76</t>
+          <t>-4,29; 3,12</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,76</t>
+          <t>14,43; 23,27</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>12,18; 18,26</t>
+          <t>-1,01; 8,24</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 2,56</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 1,92</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 2,47</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 1,29</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 22,77</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 6,45</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>-7,22%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>69,44%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>74,79%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-2,98%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-6,56%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>86,31%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 23,91</t>
+          <t>-14,15; 22,61</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 9,34</t>
+          <t>-21,23; 9,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 23,06</t>
+          <t>-15,35; 20,33</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>43,63; 96,29</t>
+          <t>-25,62; 8,49</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 11,15</t>
+          <t>70,04; 136,41</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 15,17</t>
+          <t>-6,38; 19,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 12,21</t>
+          <t>-19,09; 9,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>38,66; 79,71</t>
+          <t>-11,09; 15,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 13,8</t>
+          <t>-13,41; 11,74</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 7,63</t>
+          <t>-15,73; 13,24</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 11,95</t>
+          <t>53,42; 103,23</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>47,58; 79,93</t>
+          <t>-2,38; 22,06</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 11,2</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-12,79; 8,36</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; 10,64</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 5,69</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>66,76; 106,69</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 17,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
